--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2483637.556944467</v>
+        <v>2545233.43506515</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5126735.978634907</v>
+        <v>5186763.288913775</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>329.9041245198146</v>
+        <v>74.79667889564888</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -674,10 +674,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>8.129390960577833</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>142.0902352657462</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -902,13 +902,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>88.08613513053274</v>
       </c>
       <c r="Y5" t="n">
-        <v>331.484581935008</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
-        <v>128.8768572327043</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
         <v>174.5731815300314</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>29.68613922827265</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>63.91879806533785</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>245.2728644367405</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1297,19 +1297,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>141.0670894717356</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>225.259123432647</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112173</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.43430199953276</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170436</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>103.3456594571957</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1607,25 +1607,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>347.6518966631701</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225779</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>155.4300230108045</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1844,25 +1844,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>218.9887234481606</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.8153550780024</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,16 +1901,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>161.6379250432768</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2081,25 +2081,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2138,10 +2138,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2245,16 +2245,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022559</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>159.2712338520867</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>77.8404144888692</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>56.72042565247619</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3284,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3430,10 +3430,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>43.7014338986948</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>131.5141848153389</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3560,7 +3560,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3673,13 +3673,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>46.16917954999367</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3721,7 +3721,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3740,7 +3740,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>344.5576664477296</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864827</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3907,7 +3907,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>30.80549757377469</v>
+        <v>119.0616621442534</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -4028,7 +4028,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4040,7 +4040,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>146.9399060518605</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4138,10 +4138,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>102.8562685532377</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>1292.14448398095</v>
       </c>
       <c r="C2" t="n">
-        <v>1226.179759784392</v>
+        <v>1258.042415204777</v>
       </c>
       <c r="D2" t="n">
-        <v>892.9432703704374</v>
+        <v>1182.490214300081</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4364,16 +4364,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1318.649370085396</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1314.403650425453</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W4" t="n">
-        <v>1688.971924059632</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="X4" t="n">
-        <v>1443.580169393044</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y4" t="n">
-        <v>1216.160498707152</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1379.443841960034</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1345.341773183862</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1313.47239239871</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>879.6976475570054</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>451.8302179662131</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>674.5331706342547</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1298.633954679033</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1298.633954679033</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1298.633954679033</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1922.73473872381</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.397026790866</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1899.780076724693</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1898.96502617613</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>1809.989132104885</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>1401.703008404538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326453</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993459</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.659647297093</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>989.5883728917329</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>817.0266613749578</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>651.1486685764805</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>481.3906648272177</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>304.683610788974</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541668</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253024</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>829.9804080932635</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2491.633330253372</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2491.633330253372</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2213.200329506477</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1926.244821376908</v>
       </c>
       <c r="W7" t="n">
-        <v>1697.183430080417</v>
+        <v>1654.218416963199</v>
       </c>
       <c r="X7" t="n">
-        <v>1532.240118618369</v>
+        <v>1408.826662296612</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1181.40699161072</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1415.517618276921</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1250.914606198081</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1003.164238080161</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>584.0217746594717</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1841.817188761829</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.8484307043673</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2867191875922</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1410.227921950848</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1138.201517537139</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>910.6670494233545</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>910.6670494233545</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>793.205615577161</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004248</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>2481.810506693462</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>4764.64297345017</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.575746323208</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745657</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2472.724095295529</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2034.581622478952</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.671837653396</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1164.897092811691</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>737.0296632208992</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239596</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556612</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4131.307707490439</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3726.452252901472</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3307.309789480783</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2899.023665780436</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580462</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412712</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427939</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935312</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2559.679081471571</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119685</v>
+        <v>2313.799635050027</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.84397037279</v>
+        <v>2035.366634303132</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1748.411126173562</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1591.411102930325</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477033</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181362</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364785</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.97319753923</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.198452697525</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>609.3310231067326</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510148</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423107</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>2574.179093706255</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N17" t="n">
-        <v>2574.179093706255</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.358760276561</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4382.668635109958</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4929.167421068553</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068553</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.51554725239</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125429</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442445</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376272</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787305</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366616</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.32502566627</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1177.641509033253</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516477</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047180002</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687374</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304936</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563212</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466957</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622167</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2392.730958265322</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2114.297957518428</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2114.297957518428</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1842.271553104719</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1596.879798438132</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1369.46012775224</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,55 +5738,55 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
@@ -5820,10 +5820,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I21" t="n">
         <v>128.3245134312372</v>
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>922.9010479080738</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>750.3393363912987</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>584.4613435928212</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303137</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.53109197954</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1342.139337312953</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1114.719666627061</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1090.187678435286</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>917.6259669185113</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>751.747974120034</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2313.799635050031</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2026.844126920461</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1754.817722506753</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1509.425967840165</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1282.006297154273</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6686,64 +6686,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6929,7 +6929,7 @@
         <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6947,28 +6947,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
         <v>4187.483659846699</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937639</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769889</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>451.8971520785116</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>451.8971520785116</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
         <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2159.539202830818</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798643</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.155475112751</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,31 +7181,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1062.363260807472</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>889.8015492906972</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>723.9235564922199</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>554.1655527429571</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>377.4584987047133</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1726.993304878939</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1481.601550212351</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1254.181879526459</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460638995</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640435</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873075</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2665.685099163889</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163889</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734195</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.174640567591</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526187</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526187</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710024</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583062</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900079</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833905</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244939</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.11715482425</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123903</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050121</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319658</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481274</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143113</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1033.881239320095</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C43" t="n">
-        <v>861.3195278033203</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D43" t="n">
-        <v>695.441535004843</v>
+        <v>697.7765985000558</v>
       </c>
       <c r="E43" t="n">
-        <v>525.6835312555803</v>
+        <v>528.018594750793</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396462</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654739</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436691</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015146</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268252</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V43" t="n">
-        <v>1725.145933138682</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W43" t="n">
-        <v>1453.119528724974</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X43" t="n">
-        <v>1453.119528724974</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y43" t="n">
-        <v>1225.699858039083</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062125</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547033</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.053361506103</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>771.4916499893279</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>667.5964292284815</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284815</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2691.977765289287</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.098318867742</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2167.665318120847</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1880.709809991278</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.683405577569</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.291650910982</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1135.87198022509</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,13 +7988,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>604.9339300505449</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664742026</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388475283</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,19 +8614,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8696,10 +8696,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>132.2533329504331</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>314.2706063049986</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10191,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.8350353226369</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.3810530784686</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>49.73195639979866</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.8761173587669</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>178.3951296148081</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>81.78272691405246</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>110.0349065174847</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>90.22000922290091</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>131.2385495991665</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>144.1344859240868</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>117.7661826744369</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>89.20338164068136</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>144.1344859240866</v>
+        <v>55.87832135360794</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>268.0111327346219</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>61.36294431725486</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448453.6855049382</v>
+        <v>450567.4059088174</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>448453.6855049382</v>
+        <v>450947.9859164716</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>429951.9178461126</v>
+        <v>448096.3800930257</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>429951.9178461125</v>
+        <v>448096.3800930256</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>436018.9575572457</v>
+        <v>448096.3800930257</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>442029.3403818927</v>
+        <v>448096.3800930257</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429951.9178461126</v>
+        <v>448096.3800930257</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>495936.2708986278</v>
       </c>
       <c r="C2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="D2" t="n">
-        <v>495936.2708986278</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>467609.6056238005</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="F2" t="n">
-        <v>467609.6056238005</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="G2" t="n">
-        <v>474208.0319335124</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="H2" t="n">
+        <v>487343.2653270508</v>
+      </c>
+      <c r="I2" t="n">
         <v>487343.2653270507</v>
-      </c>
-      <c r="I2" t="n">
-        <v>487343.2653270508</v>
       </c>
       <c r="J2" t="n">
         <v>487343.2653270507</v>
@@ -26344,16 +26344,16 @@
         <v>487343.2653270507</v>
       </c>
       <c r="M2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="N2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="O2" t="n">
         <v>487343.2653270508</v>
       </c>
-      <c r="O2" t="n">
-        <v>480744.8390173389</v>
-      </c>
       <c r="P2" t="n">
-        <v>467609.6056238004</v>
+        <v>487343.2653270508</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.7678950158</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998311</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850446</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996339</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877223</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622594</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>130243.4307963246</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13668.38414064833</v>
+        <v>14245.20557049253</v>
       </c>
       <c r="F4" t="n">
-        <v>13668.38414064833</v>
+        <v>14245.20557049253</v>
       </c>
       <c r="G4" t="n">
-        <v>13861.25833407852</v>
+        <v>14245.20557049256</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049256</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26445,7 +26445,7 @@
         <v>14245.20557049264</v>
       </c>
       <c r="L4" t="n">
-        <v>14245.20557049259</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26454,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14052.33137706245</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.38414064833</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.2138080025</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.344800242</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319803</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>119019.9422365846</v>
       </c>
       <c r="C6" t="n">
-        <v>261211.2428962943</v>
+        <v>227148.8583992849</v>
       </c>
       <c r="D6" t="n">
-        <v>261211.2428962945</v>
+        <v>288065.2975617517</v>
       </c>
       <c r="E6" t="n">
-        <v>146066.8571834673</v>
+        <v>213001.4875903332</v>
       </c>
       <c r="F6" t="n">
-        <v>380421.8792055047</v>
+        <v>395356.5968113829</v>
       </c>
       <c r="G6" t="n">
-        <v>379094.2177563414</v>
+        <v>395356.5968113831</v>
       </c>
       <c r="H6" t="n">
-        <v>382977.0661708022</v>
+        <v>395356.596811383</v>
       </c>
       <c r="I6" t="n">
-        <v>395379.8211507656</v>
+        <v>395356.5968113829</v>
       </c>
       <c r="J6" t="n">
-        <v>284365.3558057753</v>
+        <v>284342.1314663927</v>
       </c>
       <c r="K6" t="n">
-        <v>395379.8211507655</v>
+        <v>342310.7421726107</v>
       </c>
       <c r="L6" t="n">
-        <v>395379.8211507656</v>
+        <v>385964.2950847602</v>
       </c>
       <c r="M6" t="n">
-        <v>199778.6418676978</v>
+        <v>243156.4258733953</v>
       </c>
       <c r="N6" t="n">
-        <v>395379.8211507656</v>
+        <v>395356.5968113829</v>
       </c>
       <c r="O6" t="n">
-        <v>390378.2715570784</v>
+        <v>395356.596811383</v>
       </c>
       <c r="P6" t="n">
-        <v>380421.8792055045</v>
+        <v>395356.5968113829</v>
       </c>
     </row>
   </sheetData>
@@ -26790,22 +26790,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267138</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631547</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483581</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.1103742393945</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319862</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760685</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483581</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.1103742393945</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483581</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.1103742393945</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319862</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760685</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,10 +27379,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>101.6465624574853</v>
+        <v>356.754008081651</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27597,10 +27597,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>261.1767494089935</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>100.8476018541754</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>326.8649036559497</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.71868052833509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>127.9628157867106</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,10 +27910,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>155.5340356063365</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>26.99333424003453</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>17.67871368727461</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-4.440005183820705e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-4.61872842510909e-14</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,13 +34708,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>604.9339300505449</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664742026</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388475283</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35416,10 +35416,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35571,10 +35571,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.434224008041</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35586,7 +35586,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35808,22 +35808,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821493</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>132.2533329504331</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,10 +35902,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157532</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>314.2706063049986</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,13 +37780,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.8350353226369</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,13 +38017,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
